--- a/doors-detector/results/house21_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
+++ b/doors-detector/results/house21_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7165877420350931</v>
+        <v>0.7050491476933534</v>
       </c>
       <c r="F2" t="n">
         <v>1290</v>
       </c>
       <c r="G2" t="n">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="H2" t="n">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3463558100266403</v>
+        <v>0.3331144391213354</v>
       </c>
       <c r="F3" t="n">
         <v>113</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6443196994210149</v>
+        <v>0.6440438155888007</v>
       </c>
       <c r="F4" t="n">
         <v>283</v>
       </c>
       <c r="G4" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H4" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7242342675432351</v>
+        <v>0.7916888709658572</v>
       </c>
       <c r="F5" t="n">
         <v>1290</v>
       </c>
       <c r="G5" t="n">
-        <v>1019</v>
+        <v>1082</v>
       </c>
       <c r="H5" t="n">
-        <v>271</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3670092045995633</v>
+        <v>0.4188804896856388</v>
       </c>
       <c r="F6" t="n">
         <v>113</v>
       </c>
       <c r="G6" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6935824384186554</v>
+        <v>0.7170371424248063</v>
       </c>
       <c r="F7" t="n">
         <v>283</v>
       </c>
       <c r="G7" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H7" t="n">
-        <v>493</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7731867945426496</v>
+        <v>0.8409649865402338</v>
       </c>
       <c r="F8" t="n">
         <v>1290</v>
       </c>
       <c r="G8" t="n">
-        <v>1061</v>
+        <v>1126</v>
       </c>
       <c r="H8" t="n">
-        <v>229</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4896937609518457</v>
+        <v>0.5400773717723273</v>
       </c>
       <c r="F9" t="n">
         <v>113</v>
       </c>
       <c r="G9" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H9" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7169928749237668</v>
+        <v>0.6737245747932344</v>
       </c>
       <c r="F10" t="n">
         <v>283</v>
       </c>
       <c r="G10" t="n">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="H10" t="n">
-        <v>427</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7556539977729362</v>
+        <v>0.8409705789919497</v>
       </c>
       <c r="F11" t="n">
         <v>1290</v>
       </c>
       <c r="G11" t="n">
-        <v>1048</v>
+        <v>1125</v>
       </c>
       <c r="H11" t="n">
-        <v>242</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5401941749678065</v>
+        <v>0.6567821477234485</v>
       </c>
       <c r="F12" t="n">
         <v>113</v>
       </c>
       <c r="G12" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H12" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7088512428869743</v>
+        <v>0.7062466050660798</v>
       </c>
       <c r="F13" t="n">
         <v>283</v>
       </c>
       <c r="G13" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H13" t="n">
-        <v>423</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7392028749223287</v>
+        <v>0.7930908174546302</v>
       </c>
       <c r="F14" t="n">
         <v>1290</v>
       </c>
       <c r="G14" t="n">
-        <v>1030</v>
+        <v>1080</v>
       </c>
       <c r="H14" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5764871475714006</v>
+        <v>0.6422509552602315</v>
       </c>
       <c r="F15" t="n">
         <v>113</v>
       </c>
       <c r="G15" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6974954006525644</v>
+        <v>0.7616148245781017</v>
       </c>
       <c r="F16" t="n">
         <v>283</v>
       </c>
       <c r="G16" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H16" t="n">
-        <v>495</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.793520231835173</v>
+        <v>0.8579807357476296</v>
       </c>
       <c r="F17" t="n">
         <v>1290</v>
       </c>
       <c r="G17" t="n">
-        <v>1080</v>
+        <v>1146</v>
       </c>
       <c r="H17" t="n">
-        <v>210</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5843025785965785</v>
+        <v>0.6752869612357741</v>
       </c>
       <c r="F18" t="n">
         <v>113</v>
       </c>
       <c r="G18" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H18" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7339861986565328</v>
+        <v>0.7548514164498756</v>
       </c>
       <c r="F19" t="n">
         <v>283</v>
       </c>
       <c r="G19" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H19" t="n">
-        <v>458</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
